--- a/Assignment3(Python_Project)/data/budgets.xlsx
+++ b/Assignment3(Python_Project)/data/budgets.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,6 +825,25 @@
         <v>4</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Assignment3(Python_Project)/data/budgets.xlsx
+++ b/Assignment3(Python_Project)/data/budgets.xlsx
@@ -1,40 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\DIS\Github\python-project\Assignment3(Python_Project)\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D3AF32-D94C-417C-96E0-08A2E11A5EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>monthly_budget</t>
+  </si>
+  <si>
+    <t>budget_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +90,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,424 +415,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>monthly_budget</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>budget_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>45658</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45658</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45658</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45658</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>250</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45658</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45689</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>600</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45689</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45689</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45689</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>250</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45689</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>100</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45717</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>700</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45717</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>45717</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>50</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="E14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>45717</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>250</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45717</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>100</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45748</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>700</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45748</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>1000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>45748</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>50</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45748</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>250</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="n">
-        <v>8</v>
+      <c r="E21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment3(Python_Project)/data/budgets.xlsx
+++ b/Assignment3(Python_Project)/data/budgets.xlsx
@@ -1,40 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\DIS\Github\python-project\Assignment3(Python_Project)\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9ED07-9D3B-49C9-A0B9-CD34B3578102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>monthly_budget</t>
+  </si>
+  <si>
+    <t>budget_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +90,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,404 +415,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>monthly_budget</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>budget_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>45658</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45658</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45658</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>250</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45658</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45689</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>600</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45689</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>1000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45689</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45689</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>250</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45689</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>100</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45717</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>700</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45717</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>1000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45717</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>13</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>45717</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>250</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>45717</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>100</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45748</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>700</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>16</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45748</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>1000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>17</v>
       </c>
-      <c r="E17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45748</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
         <v>50</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>18</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>7</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>45748</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>250</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45748</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>100</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>5</v>
       </c>
     </row>

--- a/Assignment3(Python_Project)/data/budgets.xlsx
+++ b/Assignment3(Python_Project)/data/budgets.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\DIS\Github\python-project\Assignment3(Python_Project)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OCS001991\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9ED07-9D3B-49C9-A0B9-CD34B3578102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -43,19 +42,19 @@
     <t>Rent</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>Transportation</t>
   </si>
   <si>
     <t>Utilities</t>
-  </si>
-  <si>
-    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -81,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,16 +103,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,23 +428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,10 +461,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45658</v>
+        <v>45574</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -464,10 +479,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45658</v>
+        <v>45574</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -481,295 +497,331 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45658</v>
+        <v>45574</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45658</v>
+        <v>45574</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45689</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>600</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45689</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45689</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>45689</v>
+        <v>45605</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45689</v>
+        <v>45605</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45633</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>100</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45633</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>700</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45633</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45717</v>
+        <v>45633</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45717</v>
+        <v>45633</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>100</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>700</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1000</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>45748</v>
+        <v>45664</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>45748</v>
+        <v>45664</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20">
+        <v>250</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>100</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>5</v>
       </c>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assignment3(Python_Project)/data/budgets.xlsx
+++ b/Assignment3(Python_Project)/data/budgets.xlsx
@@ -1,40 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\DIS\Github\python-project\Assignment3(Python_Project)\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831DD4D-1466-4558-8F3E-940BF7E83F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>monthly_budget</t>
+  </si>
+  <si>
+    <t>budget_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +90,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,481 +415,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>monthly_budget</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>budget_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>45574</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45574</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45574</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45574</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>250</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45605</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45605</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>600</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45605</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45605</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45605</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>250</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45633</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>100</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45633</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>700</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45633</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>45633</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>50</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="E14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>45633</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>250</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45664</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>100</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45664</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>700</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45664</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>1000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>45664</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>50</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45664</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>250</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>45664</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>45689</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>200</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>45689</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
         <v>81</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>45689</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>1000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" t="n">
-        <v>8</v>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
